--- a/ERS/Protótipo/Relatórios.xlsx
+++ b/ERS/Protótipo/Relatórios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RF_S9" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>Relatório - Defeitos x Soluções</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Não Solucionadas:</t>
-  </si>
-  <si>
-    <t>Todas</t>
   </si>
   <si>
     <t>+ Empresa - Kurasoft (3/3/0)</t>
@@ -444,107 +441,107 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -850,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,52 +859,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -917,10 +914,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -929,10 +926,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -941,10 +938,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -953,10 +950,10 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1038,128 +1035,138 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="24" t="s">
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="24"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="25" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="27" t="s">
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="27"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="25"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34">
+      <c r="A25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21">
         <v>23</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34">
+      <c r="A26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21">
         <v>18</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A26:B26"/>
@@ -1171,16 +1178,6 @@
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="K18:M19"/>
     <mergeCell ref="F18:J19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A2:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1191,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,55 +1202,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1263,10 +1260,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1275,10 +1272,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1287,10 +1284,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -1299,10 +1296,10 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1311,10 +1308,8 @@
       <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="35"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1338,7 +1333,7 @@
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1356,7 +1351,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1373,7 +1368,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1389,7 +1384,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1403,91 +1398,91 @@
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="41" t="s">
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="43"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="42" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="42" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42" t="s">
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1505,7 +1500,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1523,48 +1518,37 @@
       <c r="O25" s="9"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34">
+      <c r="A28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21">
         <v>23</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21">
         <v>18</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31">
+      <c r="B30" s="40"/>
+      <c r="C30" s="41">
         <v>5</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A2:O3"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="A28:B28"/>
@@ -1578,6 +1562,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J20:N20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1600,58 +1595,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="A2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1661,10 +1656,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1673,10 +1668,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="23"/>
+      <c r="B7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1685,10 +1680,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -1697,17 +1692,17 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1723,11 +1718,11 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="45"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1742,11 +1737,11 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="46"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1764,7 +1759,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1777,138 +1772,138 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="46"/>
+      <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+      <c r="E15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="44" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="24" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="O17" s="47">
         <v>5</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="24"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="25" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="27" t="s">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="25">
         <v>10</v>
       </c>
-      <c r="P19" s="27" t="s">
-        <v>56</v>
+      <c r="P19" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="27"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="E21" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1926,64 +1921,64 @@
       <c r="P23" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34">
+      <c r="A25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21">
         <v>23</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21">
+        <v>18</v>
+      </c>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34">
-        <v>18</v>
-      </c>
-      <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41">
         <v>5</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="E21:O21"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A2:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E15:O15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="F19:J20"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="F19:J20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E15:O15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A2:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="E21:O21"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1993,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,50 +2001,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="A2" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2059,10 +2054,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2071,10 +2066,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="23"/>
+      <c r="B7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2083,10 +2078,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -2095,17 +2090,17 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2118,11 +2113,11 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="45"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2134,11 +2129,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="46"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2153,7 +2148,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2166,98 +2161,98 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="44" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="47" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="47">
         <v>5</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="24"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="27" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="24">
+      <c r="K18" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="22">
         <v>0</v>
       </c>
-      <c r="M18" s="24" t="s">
-        <v>56</v>
+      <c r="M18" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2271,7 +2266,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2286,38 +2281,40 @@
       <c r="M23" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21">
+        <v>33</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34">
-        <v>33</v>
-      </c>
-      <c r="D25" s="34"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50">
+      <c r="B26" s="51"/>
+      <c r="C26" s="52">
         <v>18</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I17"/>
-    <mergeCell ref="D18:I19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="L16:L17"/>
@@ -2326,17 +2323,15 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I17"/>
+    <mergeCell ref="D18:I19"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/ERS/Protótipo/Relatórios.xlsx
+++ b/ERS/Protótipo/Relatórios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="RF_S9" sheetId="1" r:id="rId1"/>
@@ -445,6 +445,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -463,31 +487,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -495,36 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,52 +859,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -914,10 +914,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -926,10 +926,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -938,10 +938,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -950,10 +950,10 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1035,138 +1035,128 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33" t="s">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="22" t="s">
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="22"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="23" t="s">
+      <c r="F20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="25" t="s">
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="25"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="33"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="28"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21">
-        <v>23</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29">
+        <v>2</v>
+      </c>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21">
-        <v>18</v>
-      </c>
-      <c r="D26" s="21"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29">
+        <v>3</v>
+      </c>
+      <c r="D26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A2:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A26:B26"/>
@@ -1178,6 +1168,16 @@
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="K18:M19"/>
     <mergeCell ref="F18:J19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,55 +1202,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1260,10 +1260,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1272,10 +1272,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1284,10 +1284,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -1296,10 +1296,10 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1308,8 +1308,8 @@
       <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1398,84 +1398,84 @@
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37" t="s">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1518,37 +1518,45 @@
       <c r="O25" s="9"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29">
         <v>23</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29">
         <v>18</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41">
+      <c r="B30" s="42"/>
+      <c r="C30" s="43">
         <v>5</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J20:N20"/>
     <mergeCell ref="A2:O3"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="A28:B28"/>
@@ -1565,14 +1573,6 @@
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J20:N20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1584,7 +1584,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P27"/>
+      <selection activeCell="F19" sqref="F19:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,58 +1595,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1656,10 +1656,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1668,10 +1668,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1680,10 +1680,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -1692,10 +1692,10 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1775,34 +1775,34 @@
       <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="11" t="s">
         <v>14</v>
       </c>
@@ -1814,19 +1814,19 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="22" t="s">
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="30" t="s">
         <v>16</v>
       </c>
       <c r="O17" s="47">
@@ -1837,68 +1837,68 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="22"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="30"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="23" t="s">
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="25" t="s">
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="33">
         <v>10</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="P19" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="25"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="33"/>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1921,53 +1921,37 @@
       <c r="P23" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29">
         <v>23</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29">
         <v>18</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43">
         <v>5</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E15:O15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="F19:J20"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="A25:B25"/>
@@ -1979,6 +1963,22 @@
     <mergeCell ref="E21:O21"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="F19:J20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E15:O15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A2:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,50 +2001,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2054,10 +2054,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2066,10 +2066,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2078,10 +2078,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -2090,10 +2090,10 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2161,14 +2161,14 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="11" t="s">
         <v>14</v>
       </c>
@@ -2183,14 +2183,14 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="47" t="s">
         <v>16</v>
       </c>
@@ -2205,50 +2205,50 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="22"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="25" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="30">
         <v>0</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
@@ -2281,14 +2281,14 @@
       <c r="M23" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29">
         <v>33</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
@@ -2308,21 +2308,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="D15:I15"/>
@@ -2332,6 +2317,21 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/ERS/Protótipo/Relatórios.xlsx
+++ b/ERS/Protótipo/Relatórios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RF_S9" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>Relatório - Defeitos x Soluções</t>
   </si>
@@ -121,9 +121,6 @@
     <t>+ Empresa - Kurasoft (3/3/0)</t>
   </si>
   <si>
-    <t>Descrição do defeito</t>
-  </si>
-  <si>
     <t>Erro não tradado ao inserir</t>
   </si>
   <si>
@@ -242,13 +239,40 @@
   </si>
   <si>
     <t>15 dias</t>
+  </si>
+  <si>
+    <t>Período:</t>
+  </si>
+  <si>
+    <t>Dt. Consulta</t>
+  </si>
+  <si>
+    <t>01/10/2013 à 01/11/2013</t>
+  </si>
+  <si>
+    <t>Todas</t>
+  </si>
+  <si>
+    <t>Descrição do defeito consultado</t>
+  </si>
+  <si>
+    <t>Usuário solução</t>
+  </si>
+  <si>
+    <t>Solucionada?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +314,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,6 +477,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -481,51 +522,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,6 +585,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:M19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,52 +907,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -914,10 +962,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -926,10 +974,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -938,10 +986,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -950,10 +998,10 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1035,125 +1083,125 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34" t="s">
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="30" t="s">
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="30"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="31" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="33" t="s">
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="33"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="36"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29">
+      <c r="A25" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32">
         <v>2</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29">
+      <c r="A26" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32">
         <v>3</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1186,206 +1234,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O30"/>
+  <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L4" s="22" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="G10" s="58"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="37"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1395,181 +1454,235 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="23" t="s">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E18" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="39" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="56">
+        <v>41557</v>
+      </c>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="40" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="57">
+        <v>41558</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="40" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="57">
+        <v>41559</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="57">
+        <v>41560</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32">
         <v>23</v>
       </c>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29">
+      <c r="B30" s="31"/>
+      <c r="C30" s="32">
         <v>18</v>
       </c>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43">
+      <c r="B31" s="44"/>
+      <c r="C31" s="45">
         <v>5</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D31" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J22:N22"/>
     <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="A2:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A2:Q3"/>
+    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E17:I17"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E20:I20"/>
@@ -1595,58 +1708,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="A2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1656,10 +1769,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1668,10 +1781,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="27"/>
+      <c r="B7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1680,10 +1793,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -1692,17 +1805,17 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1722,7 +1835,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1741,7 +1854,7 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1759,7 +1872,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1775,135 +1888,135 @@
       <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="E15" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="O16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="50">
+        <v>5</v>
+      </c>
+      <c r="P17" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="36">
+        <v>10</v>
+      </c>
+      <c r="P19" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="47">
-        <v>5</v>
-      </c>
-      <c r="P17" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="30"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="33">
-        <v>10</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="E21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1921,34 +2034,34 @@
       <c r="P23" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29">
+      <c r="A25" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32">
         <v>23</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32">
+        <v>18</v>
+      </c>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29">
-        <v>18</v>
-      </c>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43">
+      <c r="B27" s="44"/>
+      <c r="C27" s="45">
         <v>5</v>
       </c>
-      <c r="D27" s="44"/>
+      <c r="D27" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -1988,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -2001,50 +2114,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2054,10 +2167,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2066,10 +2179,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="27"/>
+      <c r="B7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2078,10 +2191,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -2090,17 +2203,17 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2117,7 +2230,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2133,7 +2246,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2148,7 +2261,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2161,98 +2274,98 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="50">
+        <v>5</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="33">
+        <v>0</v>
+      </c>
+      <c r="M18" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="47">
-        <v>5</v>
-      </c>
-      <c r="M16" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="30">
-        <v>0</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2266,7 +2379,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2281,30 +2394,30 @@
       <c r="M23" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32">
+        <v>33</v>
+      </c>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29">
-        <v>33</v>
-      </c>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55">
         <v>18</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="55"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/ERS/Protótipo/Relatórios.xlsx
+++ b/ERS/Protótipo/Relatórios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RF_S9" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>Relatório - Defeitos x Soluções</t>
   </si>
@@ -73,15 +73,6 @@
     <t>Realizar o update no campo "Valor" para "0" onde estiver com valor nulo</t>
   </si>
   <si>
-    <t>Desccrição:</t>
-  </si>
-  <si>
-    <t>Erro no campo valor</t>
-  </si>
-  <si>
-    <t>Erro no campo valor unitário.</t>
-  </si>
-  <si>
     <t>Atualizar a versão do sistema superior a 3.10.2013.</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
     <t>Klederson</t>
   </si>
   <si>
-    <t>Relatório - Defeitos x Soluções x Soluções Válidas x Consultas Solucionadas</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
@@ -266,6 +254,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Relatório - Defeitos x Soluções x Consultas Solucionadas</t>
   </si>
 </sst>
 </file>
@@ -448,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -471,7 +462,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -486,6 +476,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -498,35 +522,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -543,30 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,13 +579,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O26"/>
+  <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,52 +894,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -962,10 +949,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -974,10 +961,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -986,10 +973,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -998,64 +985,70 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14"/>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1068,164 +1061,149 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="27" t="s">
+      <c r="E15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="11" t="s">
-        <v>14</v>
+      <c r="F17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="33"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="30" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="36"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="33"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26">
+        <v>2</v>
+      </c>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32">
-        <v>2</v>
-      </c>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32">
+      <c r="A25" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26">
         <v>3</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K20:M21"/>
-    <mergeCell ref="F20:J21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="K18:M19"/>
-    <mergeCell ref="F18:J19"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A2:N3"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="E15:N15"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="F19:J20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="F17:J18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -1252,61 +1230,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1316,10 +1294,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1328,10 +1306,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1340,10 +1318,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -1352,36 +1330,36 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="G10" s="58"/>
+        <v>25</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="46"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1401,9 +1379,9 @@
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1423,7 +1401,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1442,7 +1420,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1460,7 +1438,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1476,121 +1454,121 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E19" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="22">
+        <v>41557</v>
+      </c>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="23">
+        <v>41558</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="23">
+        <v>41559</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E19" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" s="56">
-        <v>41557</v>
-      </c>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E20" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="57">
-        <v>41558</v>
-      </c>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E21" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="P21" s="57">
-        <v>41559</v>
-      </c>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E22" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" s="57">
+      <c r="P22" s="23">
         <v>41560</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1610,7 +1588,7 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1630,46 +1608,37 @@
       <c r="Q26" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32">
+      <c r="A29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26">
         <v>23</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32">
+      <c r="A30" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26">
         <v>18</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45">
+      <c r="A31" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42">
         <v>5</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J21:N21"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A2:Q3"/>
     <mergeCell ref="L4:Q4"/>
@@ -1686,6 +1655,15 @@
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J21:N21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1696,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,58 +1686,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1769,10 +1747,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1781,10 +1759,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="30"/>
+      <c r="B7" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="38"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1793,10 +1771,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -1805,17 +1783,17 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1831,11 +1809,11 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="18"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1850,11 +1828,11 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="19"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1872,7 +1850,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1885,138 +1863,138 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="19"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="E15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="17" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="33" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="50">
+      <c r="O17" s="51">
         <v>5</v>
       </c>
-      <c r="P17" s="50" t="s">
-        <v>45</v>
+      <c r="P17" s="51" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="36">
+      <c r="F19" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="30">
         <v>10</v>
       </c>
-      <c r="P19" s="36" t="s">
-        <v>54</v>
+      <c r="P19" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="E21" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
       <c r="P21" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2034,37 +2012,53 @@
       <c r="P23" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32">
+      <c r="A25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26">
         <v>23</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32">
+      <c r="A26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26">
         <v>18</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45">
+      <c r="A27" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42">
         <v>5</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="D27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A2:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E15:O15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="F19:J20"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="A25:B25"/>
@@ -2076,22 +2070,6 @@
     <mergeCell ref="E21:O21"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="F19:J20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E15:O15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A2:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2114,50 +2092,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2167,10 +2145,10 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2179,10 +2157,10 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="30"/>
+      <c r="B7" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="38"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2191,10 +2169,10 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
@@ -2203,17 +2181,17 @@
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2226,11 +2204,11 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="18"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2242,11 +2220,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="19"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2261,7 +2239,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2274,98 +2252,98 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="51">
+        <v>5</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="50">
-        <v>5</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="33"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="33">
+      <c r="L18" s="27">
         <v>0</v>
       </c>
-      <c r="M18" s="33" t="s">
-        <v>54</v>
+      <c r="M18" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2379,7 +2357,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2394,33 +2372,48 @@
       <c r="M23" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32">
+      <c r="A25" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26">
         <v>33</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55">
+      <c r="A26" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56">
         <v>18</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="56"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="D15:I15"/>
@@ -2430,21 +2423,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
